--- a/bnce_inputs.xlsx
+++ b/bnce_inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xi_a/Desktop/github/BNCE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xi_a/Desktop/git/git controlled resources/BNCE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A71E64-9472-9A4B-9C7F-E7A52880DF2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7446951-5599-EB41-A176-AB2E9DA9E6C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="2740" windowWidth="28040" windowHeight="17240" xr2:uid="{46DE974A-5BFB-DC48-A030-53403C17F9CD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{46DE974A-5BFB-DC48-A030-53403C17F9CD}"/>
   </bookViews>
   <sheets>
     <sheet name="bnce_inputs" sheetId="1" r:id="rId1"/>
@@ -41,18 +41,12 @@
     <t xml:space="preserve">Chamber Temperature </t>
   </si>
   <si>
-    <t>solver</t>
-  </si>
-  <si>
     <t>BNCE Inputs File</t>
   </si>
   <si>
     <t>1 for moc and 0 for rao</t>
   </si>
   <si>
-    <t xml:space="preserve">Specific Heat, gamma </t>
-  </si>
-  <si>
     <t>Gas Constant</t>
   </si>
   <si>
@@ -68,33 +62,66 @@
     <t>Chamber Pressure</t>
   </si>
   <si>
-    <t>force v mass flow flag</t>
-  </si>
-  <si>
-    <t>force</t>
-  </si>
-  <si>
-    <t>mass flow rate</t>
-  </si>
-  <si>
-    <t>explicit throat radius</t>
-  </si>
-  <si>
-    <t>throat radius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isp </t>
-  </si>
-  <si>
     <t>k</t>
+  </si>
+  <si>
+    <t>Solver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific Heat </t>
+  </si>
+  <si>
+    <t>Force v mass flow flag</t>
+  </si>
+  <si>
+    <t>Force</t>
+  </si>
+  <si>
+    <t>Mass flow rate</t>
+  </si>
+  <si>
+    <t>Explicit throat radius</t>
+  </si>
+  <si>
+    <t>Throat radius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isp </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -110,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -118,12 +145,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,142 +532,251 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+      <c r="D3" s="1"/>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.158</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>63.33</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>700000</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2500000</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>258</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>1.4750000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <f xml:space="preserve"> 8314/29</f>
-        <v>286.68965517241378</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>101234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>3347</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21">
-        <v>129</v>
-      </c>
+      <c r="B21" s="1">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>